--- a/biology/Microbiologie/CcdB/CcdB.xlsx
+++ b/biology/Microbiologie/CcdB/CcdB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La protéine CcdB est un poison naturel qui agit sur l'ADN gyrase et dont l'activité est normalement contrée par son antidote CcdA. En clonage, le gène ccdB est utilisé comme marqueur de sélection positive.
 Les plasmides sont des molécules d'ADN circulaires présents chez les bactéries. Le système de mort programmée du plasmide F (un plasmide bactérien) code la fabrication de deux protéines : le poison CcdB et son antidote CcdA. Ce système a pour fonction de tuer les cellules qui n'auraient pas hérité d'un plasmide lors de la division d'une bactérie en deux cellules-filles. 
@@ -515,7 +527,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bernard P. Positive selection of recombinant DNA by CcdB. Biotechniques. 1996 Aug;21(2):320-3.
 Bernard et al. Positive-selection vectors using the F plasmid ccdB killer gene. Gene. 1994 Oct 11; 148(1):71-4.</t>
